--- a/variables.xlsx
+++ b/variables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,25 +458,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lenghthnationinsur</t>
+          <t>vat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>VATvalidation</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -486,15 +490,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VATvalidation</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>find</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -504,15 +512,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VATvalidation</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tempvalid</t>
+          <t>position</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,15 +534,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VATvalidation</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>foundpos2array</t>
+          <t>nonapplic</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -540,33 +556,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VATvalidation</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>foundpos1array</t>
+          <t>nationinsur</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>foundprefix</t>
+          <t>lenghthnationinsur</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -576,15 +600,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>foundendarray</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -594,15 +622,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>numpostion</t>
+          <t>find</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -612,15 +644,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>spacepostion</t>
+          <t>tempvalid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -630,15 +666,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>foundpos2array</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -648,100 +688,432 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>characterarray</t>
+          <t>foundpos1array</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>foundprefix</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nationinsur[1])</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>temppos1array</t>
+          <t>foundendarray</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>numpostion</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nationinsur[0]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>spacepostion</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nationinsur[12])</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>characterarray</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>temppos2array</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>temppos1array</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>tempprefix</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>tempendarray</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ValidatingNI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>valdate</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>yeardivision</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>flooryears</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ValidatingDate</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
